--- a/BackTest/2020-01-23 BackTest GNT.xlsx
+++ b/BackTest/2020-01-23 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>534473.5037</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>535117.9864000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>39.82</v>
@@ -521,7 +521,7 @@
         <v>535117.9864000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
@@ -562,7 +562,7 @@
         <v>535117.9864000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>40</v>
@@ -603,7 +603,7 @@
         <v>527926.8552000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>40</v>
@@ -644,7 +644,7 @@
         <v>526572.1795000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>39.75</v>
@@ -685,7 +685,7 @@
         <v>525699.5569000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>39.73</v>
@@ -726,7 +726,7 @@
         <v>508699.5569000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>39.71</v>
@@ -767,7 +767,7 @@
         <v>507699.5569000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>39.6</v>
@@ -808,7 +808,7 @@
         <v>506572.1795000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>39.51</v>
@@ -849,7 +849,7 @@
         <v>501072.1795000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>39.41</v>
@@ -890,7 +890,7 @@
         <v>508656.1795000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>39.34</v>
@@ -931,7 +931,7 @@
         <v>533098.1551000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>39.89</v>
@@ -972,7 +972,7 @@
         <v>533098.1551000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>40.39</v>
@@ -1013,7 +1013,7 @@
         <v>562090.7083000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>40.39</v>
@@ -1054,7 +1054,7 @@
         <v>557870.4840000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>40.84</v>
@@ -1095,7 +1095,7 @@
         <v>803159.4171000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>40.72</v>
@@ -1136,11 +1136,9 @@
         <v>893544.0313404652</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>41.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>39.82</v>
       </c>
@@ -1411,9 +1409,11 @@
         <v>802569.8797404651</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J26" t="n">
         <v>39.82</v>
       </c>
@@ -1450,9 +1450,11 @@
         <v>850057.186440465</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J27" t="n">
         <v>39.82</v>
       </c>
@@ -1489,9 +1491,11 @@
         <v>791766.3753227539</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.13</v>
+      </c>
       <c r="J28" t="n">
         <v>39.82</v>
       </c>
@@ -1528,9 +1532,11 @@
         <v>792575.1867227539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J29" t="n">
         <v>39.82</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>1236643.98723219</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -11044,9 +11050,11 @@
         <v>372271.4464097968</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>45.52</v>
+      </c>
       <c r="J273" t="n">
         <v>39.82</v>
       </c>
@@ -11200,9 +11208,11 @@
         <v>341985.1834097968</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>45.3</v>
+      </c>
       <c r="J277" t="n">
         <v>39.82</v>
       </c>
@@ -11239,9 +11249,11 @@
         <v>336512.7865097968</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>45.02</v>
+      </c>
       <c r="J278" t="n">
         <v>39.82</v>
       </c>
@@ -11278,9 +11290,11 @@
         <v>336512.7865097968</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>44.91</v>
+      </c>
       <c r="J279" t="n">
         <v>39.82</v>
       </c>
@@ -11317,9 +11331,11 @@
         <v>336524.7865097968</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>44.91</v>
+      </c>
       <c r="J280" t="n">
         <v>39.82</v>
       </c>
@@ -11356,9 +11372,11 @@
         <v>336524.7865097968</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>45.32</v>
+      </c>
       <c r="J281" t="n">
         <v>39.82</v>
       </c>
@@ -11395,9 +11413,11 @@
         <v>342043.6785097968</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>45.32</v>
+      </c>
       <c r="J282" t="n">
         <v>39.82</v>
       </c>
@@ -11434,9 +11454,11 @@
         <v>341541.0346097968</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>45.33</v>
+      </c>
       <c r="J283" t="n">
         <v>39.82</v>
       </c>
@@ -11473,9 +11495,11 @@
         <v>398756.0218097968</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>44.93</v>
+      </c>
       <c r="J284" t="n">
         <v>39.82</v>
       </c>
@@ -11512,9 +11536,11 @@
         <v>401166.0218097968</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>45.09</v>
+      </c>
       <c r="J285" t="n">
         <v>39.82</v>
       </c>
@@ -11551,9 +11577,11 @@
         <v>396492.2661097968</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>45.33</v>
+      </c>
       <c r="J286" t="n">
         <v>39.82</v>
       </c>
@@ -11590,9 +11618,11 @@
         <v>403492.2661097968</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>45.12</v>
+      </c>
       <c r="J287" t="n">
         <v>39.82</v>
       </c>
@@ -11902,9 +11932,11 @@
         <v>395892.4741097968</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>45.42</v>
+      </c>
       <c r="J295" t="n">
         <v>39.82</v>
       </c>
@@ -12253,9 +12285,11 @@
         <v>370148.412389708</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>45.05</v>
+      </c>
       <c r="J304" t="n">
         <v>39.82</v>
       </c>
@@ -12292,9 +12326,11 @@
         <v>370148.412389708</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>45.05</v>
+      </c>
       <c r="J305" t="n">
         <v>39.82</v>
       </c>
@@ -12370,9 +12406,11 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>44.86</v>
+      </c>
       <c r="J307" t="n">
         <v>39.82</v>
       </c>
@@ -12448,9 +12486,11 @@
         <v>355359.9956897079</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>44.75</v>
+      </c>
       <c r="J309" t="n">
         <v>39.82</v>
       </c>
@@ -13150,7 +13190,7 @@
         <v>616790.925306453</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
@@ -13158,15 +13198,13 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
-        <v>1.184352084379709</v>
-      </c>
-      <c r="M327" t="n">
-        <v>1.004520341536916</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13191,11 +13229,17 @@
         <v>591619.506106453</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13224,11 +13268,17 @@
         <v>591619.506106453</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13257,11 +13307,17 @@
         <v>597127.1086338105</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +13346,17 @@
         <v>515766.8247338106</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13323,11 +13385,17 @@
         <v>456198.0801338106</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13356,11 +13424,17 @@
         <v>450636.5304338106</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +13463,17 @@
         <v>432710.2359338106</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13425,8 +13505,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13458,8 +13544,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13491,8 +13583,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13524,8 +13622,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13557,8 +13661,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13590,8 +13700,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13623,8 +13739,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13656,8 +13778,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +13817,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +13856,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +13895,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13788,8 +13934,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13821,8 +13973,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13854,8 +14012,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13887,8 +14051,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13920,8 +14090,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +14129,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13986,8 +14168,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14019,8 +14207,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14052,8 +14246,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14085,8 +14285,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14118,8 +14324,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14151,8 +14363,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14184,8 +14402,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14217,8 +14441,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14250,8 +14480,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14283,8 +14519,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14316,8 +14558,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14349,8 +14597,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14382,8 +14636,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14415,8 +14675,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14448,8 +14714,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14481,8 +14753,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14514,8 +14792,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14547,8 +14831,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14580,8 +14870,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14613,8 +14909,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14646,8 +14948,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14679,8 +14987,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14712,8 +15026,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14745,8 +15065,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14778,8 +15104,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14811,8 +15143,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14844,8 +15182,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14877,8 +15221,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +15260,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14943,8 +15299,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14976,8 +15338,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15009,8 +15377,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15042,8 +15416,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15075,8 +15455,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15108,8 +15494,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15141,8 +15533,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +15572,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15207,8 +15611,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +15650,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15273,8 +15689,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15306,8 +15728,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15339,8 +15767,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15372,8 +15806,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15405,8 +15845,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15438,8 +15884,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15471,8 +15923,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15504,8 +15962,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15537,8 +16001,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15570,8 +16040,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15603,8 +16079,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15636,8 +16118,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15669,8 +16157,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15702,8 +16196,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15735,8 +16235,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15765,11 +16271,17 @@
         <v>526576.5387637627</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15801,8 +16313,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15834,8 +16352,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15867,8 +16391,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15900,8 +16430,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15933,8 +16469,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15966,8 +16508,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15999,8 +16547,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16032,8 +16586,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16065,8 +16625,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16098,8 +16664,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16131,8 +16703,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16161,11 +16739,19 @@
         <v>432900.3836637628</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="J418" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16197,8 +16783,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16230,8 +16822,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16263,8 +16861,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16296,8 +16900,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16329,8 +16939,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16362,8 +16978,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16395,8 +17017,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16428,8 +17056,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16461,8 +17095,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16494,8 +17134,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16524,11 +17170,19 @@
         <v>400057.2503637628</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="J429" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16560,8 +17214,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16590,11 +17250,19 @@
         <v>396616.0306637628</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="J431" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16626,8 +17294,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16659,8 +17333,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16692,8 +17372,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16725,8 +17411,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16758,8 +17450,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16791,8 +17489,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16824,8 +17528,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16857,8 +17567,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16890,8 +17606,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16923,8 +17645,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16956,8 +17684,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16989,8 +17723,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17022,8 +17762,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17055,8 +17801,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17088,8 +17840,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17121,8 +17879,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17154,8 +17918,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17187,8 +17957,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17220,8 +17996,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17253,8 +18035,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17286,8 +18074,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17319,8 +18113,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17352,8 +18152,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17385,8 +18191,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17418,8 +18230,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17451,8 +18269,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17484,8 +18308,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17517,8 +18347,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17550,8 +18386,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17583,8 +18425,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17616,8 +18464,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17649,8 +18503,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17682,8 +18542,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17715,8 +18581,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17748,8 +18620,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17781,8 +18659,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17814,8 +18698,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17847,8 +18737,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17880,8 +18776,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17913,8 +18815,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17946,8 +18854,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17979,8 +18893,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18012,8 +18932,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18045,8 +18971,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18078,8 +19010,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18111,8 +19049,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18144,8 +19088,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18177,8 +19127,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18210,8 +19166,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18243,8 +19205,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18276,8 +19244,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18309,8 +19283,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18342,8 +19322,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18375,8 +19361,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18408,8 +19400,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18441,8 +19439,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18474,8 +19478,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18504,11 +19514,19 @@
         <v>215217.7677017979</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="J489" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +19555,19 @@
         <v>215852.9725017979</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J490" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18570,11 +19596,19 @@
         <v>235654.0543017979</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="J491" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18603,11 +19637,19 @@
         <v>236296.0543017979</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="J492" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18636,11 +19678,19 @@
         <v>453050.6347127354</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="J493" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18672,8 +19722,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18705,8 +19761,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18738,8 +19800,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18771,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18804,8 +19878,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18837,8 +19917,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18870,8 +19956,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18903,8 +19995,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18936,8 +20034,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18969,8 +20073,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19002,8 +20112,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19035,8 +20151,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19065,11 +20187,19 @@
         <v>464148.4069127354</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="J506" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19098,11 +20228,19 @@
         <v>468666.8751127354</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="J507" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +20269,19 @@
         <v>522797.5507127354</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>47.01</v>
+      </c>
+      <c r="J508" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19167,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +20349,19 @@
         <v>487569.6319127354</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J510" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19233,8 +20393,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19263,11 +20429,19 @@
         <v>463788.6514127354</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J512" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19296,11 +20470,19 @@
         <v>480890.5061127354</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>46.69</v>
+      </c>
+      <c r="J513" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19332,8 +20514,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19365,8 +20553,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19398,8 +20592,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19431,8 +20631,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19464,8 +20670,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19497,8 +20709,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19530,8 +20748,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19563,8 +20787,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19596,8 +20826,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19629,8 +20865,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19662,8 +20904,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19695,8 +20943,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19728,8 +20982,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19761,8 +21021,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19794,8 +21060,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19827,8 +21099,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19860,8 +21138,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19893,8 +21177,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19926,8 +21216,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19959,8 +21255,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19992,8 +21294,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20025,8 +21333,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20058,8 +21372,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20091,8 +21411,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20124,8 +21450,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20157,8 +21489,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20190,8 +21528,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20223,8 +21567,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20256,8 +21606,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20289,8 +21645,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20322,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20355,8 +21723,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20388,8 +21762,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20421,8 +21801,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20454,8 +21840,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20487,8 +21879,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20520,8 +21918,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20553,8 +21957,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20586,8 +21996,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20619,8 +22035,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20652,8 +22074,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20685,8 +22113,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20718,8 +22152,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20751,8 +22191,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20784,8 +22230,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20817,8 +22269,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20850,8 +22308,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20883,8 +22347,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20916,8 +22386,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20949,8 +22425,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20982,8 +22464,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21015,8 +22503,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21048,8 +22542,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21081,8 +22581,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21114,8 +22620,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21147,8 +22659,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21180,8 +22698,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21213,8 +22737,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21246,8 +22776,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21279,8 +22815,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21312,8 +22854,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21345,8 +22893,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21378,8 +22932,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21411,8 +22971,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21444,8 +23010,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21477,8 +23049,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21510,8 +23088,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21543,8 +23127,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21576,8 +23166,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21609,8 +23205,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21642,8 +23244,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21675,8 +23283,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21708,8 +23322,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21741,8 +23361,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21774,8 +23400,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21807,8 +23439,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21840,8 +23478,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21873,8 +23517,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21906,8 +23556,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21939,8 +23595,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21972,8 +23634,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22005,8 +23673,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22038,8 +23712,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22071,8 +23751,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22104,8 +23790,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22137,8 +23829,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22170,8 +23868,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22203,8 +23907,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22236,8 +23946,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22269,8 +23985,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22302,8 +24024,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22332,11 +24060,19 @@
         <v>500838.2119742639</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="J605" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22368,8 +24104,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22401,8 +24143,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22434,8 +24182,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22467,8 +24221,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22500,8 +24260,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22533,8 +24299,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22566,8 +24338,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22599,8 +24377,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22632,8 +24416,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22665,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22698,8 +24494,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22731,8 +24533,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22764,8 +24572,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22797,8 +24611,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22830,8 +24650,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22863,8 +24689,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22896,8 +24728,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22929,8 +24767,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22962,8 +24806,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22995,8 +24845,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23025,11 +24881,17 @@
         <v>725543.4285742638</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23061,8 +24923,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23094,8 +24962,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23127,8 +25001,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23160,8 +25040,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23193,8 +25079,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23226,8 +25118,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23259,8 +25157,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23292,8 +25196,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23325,8 +25235,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23358,8 +25274,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23391,8 +25313,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23424,8 +25352,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23457,8 +25391,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23490,8 +25430,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23523,8 +25469,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23556,8 +25508,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23589,8 +25547,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23622,8 +25586,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23655,8 +25625,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23688,8 +25664,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23721,8 +25703,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23754,8 +25742,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23787,8 +25781,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23820,8 +25820,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23853,8 +25859,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23886,8 +25898,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23916,11 +25934,17 @@
         <v>937242.6842820395</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23949,11 +25973,17 @@
         <v>890948.077393733</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23985,8 +26015,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24015,11 +26051,17 @@
         <v>882575.4349984435</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24048,11 +26090,17 @@
         <v>953303.4946984435</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24081,11 +26129,17 @@
         <v>987110.7479984434</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24114,11 +26168,17 @@
         <v>986057.4586984435</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24147,11 +26207,17 @@
         <v>985347.4586984435</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24180,11 +26246,17 @@
         <v>985347.4586984435</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +26285,17 @@
         <v>961529.5643984434</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24246,11 +26324,17 @@
         <v>970568.2446984435</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24279,11 +26363,17 @@
         <v>981368.3288984435</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24312,11 +26402,17 @@
         <v>977334.8656984435</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24345,11 +26441,17 @@
         <v>971707.1268984434</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24381,8 +26483,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24414,8 +26522,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24444,11 +26558,17 @@
         <v>983085.0872886009</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24480,8 +26600,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24513,8 +26639,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24546,8 +26678,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24576,11 +26714,17 @@
         <v>1008911.527288601</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24612,8 +26756,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24645,8 +26795,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24678,8 +26834,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24711,8 +26873,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24744,8 +26912,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24777,8 +26951,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24810,8 +26990,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24843,8 +27029,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24876,8 +27068,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24909,8 +27107,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24942,8 +27146,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24975,8 +27185,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25008,8 +27224,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25041,8 +27263,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25074,8 +27302,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25107,8 +27341,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25140,8 +27380,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25173,8 +27419,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25206,8 +27458,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25239,8 +27497,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25272,8 +27536,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25305,8 +27575,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25338,8 +27614,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25371,8 +27653,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25404,8 +27692,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25437,8 +27731,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25470,8 +27770,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25503,8 +27809,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25536,8 +27848,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25569,8 +27887,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25602,8 +27926,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25635,8 +27965,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25668,8 +28004,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25701,8 +28043,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25734,8 +28082,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25767,8 +28121,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25800,8 +28160,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25833,8 +28199,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25866,8 +28238,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25899,8 +28277,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25932,8 +28316,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25965,8 +28355,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25998,8 +28394,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26031,8 +28433,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26064,8 +28472,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26097,8 +28511,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26130,8 +28550,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26163,8 +28589,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26196,8 +28628,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26229,8 +28667,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26262,8 +28706,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26295,8 +28745,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26328,8 +28784,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26361,8 +28823,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26391,15 +28859,23 @@
         <v>2391596.890900969</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
+        <v>1.414136112506278</v>
+      </c>
+      <c r="M728" t="n">
+        <v>1.004520341536916</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -26424,7 +28900,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26457,7 +28933,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26490,7 +28966,7 @@
         <v>2152325.729993296</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26523,7 +28999,7 @@
         <v>1950684.744193296</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26556,7 +29032,7 @@
         <v>1733420.241393297</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26589,7 +29065,7 @@
         <v>1622503.885085692</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26622,7 +29098,7 @@
         <v>1351454.479501378</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26655,7 +29131,7 @@
         <v>1519730.056601379</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26688,7 +29164,7 @@
         <v>1729005.014314004</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26721,7 +29197,7 @@
         <v>1673897.520414004</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26754,7 +29230,7 @@
         <v>1560089.03946818</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26787,7 +29263,7 @@
         <v>1495731.16696818</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26820,7 +29296,7 @@
         <v>1592931.81626818</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26853,7 +29329,7 @@
         <v>1625404.135422355</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26886,7 +29362,7 @@
         <v>1665244.030322355</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26919,7 +29395,7 @@
         <v>1658921.000950859</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26952,7 +29428,7 @@
         <v>1669935.656750859</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26985,7 +29461,7 @@
         <v>1603399.257671222</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27018,7 +29494,7 @@
         <v>1618876.063611489</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27051,7 +29527,7 @@
         <v>1603064.598111489</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27084,7 +29560,7 @@
         <v>1479004.234238274</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27117,7 +29593,7 @@
         <v>1412619.645538274</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27150,7 +29626,7 @@
         <v>1486247.749661092</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27183,7 +29659,7 @@
         <v>1460299.641261092</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27216,7 +29692,7 @@
         <v>1475463.302389869</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27249,7 +29725,7 @@
         <v>1465364.713389869</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27282,7 +29758,7 @@
         <v>1413164.874589869</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27315,7 +29791,7 @@
         <v>1407164.874589869</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27348,7 +29824,7 @@
         <v>1385002.260989869</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27381,7 +29857,7 @@
         <v>1423921.626789869</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27414,7 +29890,7 @@
         <v>1373076.816689868</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27447,7 +29923,7 @@
         <v>1273152.277780822</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27480,7 +29956,7 @@
         <v>1458031.003280822</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27513,7 +29989,7 @@
         <v>1417622.872280822</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27546,7 +30022,7 @@
         <v>1418828.705238398</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27579,7 +30055,7 @@
         <v>1416903.952938398</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27612,7 +30088,7 @@
         <v>1419771.636038398</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27645,7 +30121,7 @@
         <v>1414345.452938398</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27678,7 +30154,7 @@
         <v>1418406.899838398</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27711,7 +30187,7 @@
         <v>1450819.355224256</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27744,7 +30220,7 @@
         <v>1446766.619224256</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27777,7 +30253,7 @@
         <v>1442301.361724256</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27810,7 +30286,7 @@
         <v>1448955.536033568</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27843,7 +30319,7 @@
         <v>1424701.917777467</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27876,7 +30352,7 @@
         <v>1426880.622077467</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27909,7 +30385,7 @@
         <v>1475604.411990456</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27942,7 +30418,7 @@
         <v>1398931.548535599</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27975,7 +30451,7 @@
         <v>1460646.323835599</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28008,7 +30484,7 @@
         <v>1501389.561835599</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28041,7 +30517,7 @@
         <v>1447637.905835599</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28074,7 +30550,7 @@
         <v>1447637.905835599</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28107,7 +30583,7 @@
         <v>1452649.614435599</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28140,7 +30616,7 @@
         <v>1449324.449135599</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28173,7 +30649,7 @@
         <v>1433246.453035599</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28206,7 +30682,7 @@
         <v>1450063.802235599</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28217,6 +30693,6 @@
       <c r="M783" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest GNT.xlsx
+++ b/BackTest/2020-01-23 BackTest GNT.xlsx
@@ -972,11 +972,9 @@
         <v>533098.1551000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>39.82</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>562090.7083000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>39.82</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>557870.4840000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>39.82</v>
       </c>
@@ -1095,11 +1089,9 @@
         <v>803159.4171000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>39.82</v>
       </c>
@@ -2072,7 +2064,7 @@
         <v>1314172.792290256</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2080,15 +2072,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.165517327975892</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.004520341536916</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2113,11 +2103,17 @@
         <v>1404875.153453297</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2142,17 @@
         <v>1241135.914953297</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2181,17 @@
         <v>1269743.015293668</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2220,17 @@
         <v>1277855.887719296</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2259,17 @@
         <v>1082784.707819296</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2298,17 @@
         <v>1157488.557719296</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2337,17 @@
         <v>1242145.257750669</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2376,17 @@
         <v>1262850.465150669</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2415,17 @@
         <v>1288321.062650669</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2454,17 @@
         <v>1362873.686650669</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2493,17 @@
         <v>1409352.423591776</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2532,17 @@
         <v>1257770.851391776</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2571,17 @@
         <v>1160188.399855933</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2542,11 +2610,17 @@
         <v>1182925.504221778</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2649,17 @@
         <v>1185199.864421778</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2608,11 +2688,17 @@
         <v>1152594.648821778</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2641,11 +2727,17 @@
         <v>1142352.932021778</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2766,17 @@
         <v>1143333.505521778</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2805,17 @@
         <v>1146662.277721778</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2844,17 @@
         <v>1123203.812721778</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2883,17 @@
         <v>1187139.592221778</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +2922,17 @@
         <v>1102936.55513219</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2961,17 @@
         <v>1196363.92563219</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2872,11 +3000,17 @@
         <v>1243364.48923219</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +3039,17 @@
         <v>1188144.83273219</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2938,11 +3078,17 @@
         <v>1204728.56283219</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2971,11 +3117,17 @@
         <v>1182913.50543219</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3004,11 +3156,17 @@
         <v>1115496.23373219</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +3195,17 @@
         <v>1067738.80863219</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3073,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +3273,17 @@
         <v>1150427.88443219</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3139,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3351,17 @@
         <v>1236643.98723219</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +3390,17 @@
         <v>865949.7676184105</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3235,11 +3429,17 @@
         <v>873466.4550184106</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +3468,17 @@
         <v>827007.7462184106</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3304,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3337,8 +3549,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3370,8 +3588,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3403,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3436,8 +3666,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3469,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3535,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3819,17 @@
         <v>703611.6564402852</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3601,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3634,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3667,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3700,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3733,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3766,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3799,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +4173,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +4212,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3931,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3964,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4030,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4063,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4096,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4129,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4162,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4195,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4261,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4360,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4393,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4426,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4459,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4492,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4558,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4591,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4690,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4822,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4921,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4987,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +5889,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +5967,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +6045,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +6357,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5911,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5977,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6708,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6747,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6825,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6142,8 +6864,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6175,8 +6903,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6208,8 +6942,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6981,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +7020,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +7059,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +7137,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +7176,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +7215,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +7254,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6505,8 +7293,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6571,8 +7371,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +7410,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +7449,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +7488,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +7527,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +7566,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +7605,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +7644,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7683,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7722,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6901,8 +7761,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7800,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7839,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +7878,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7033,8 +7917,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7066,8 +7956,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7099,8 +7995,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7132,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7165,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7198,8 +8112,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7231,8 +8151,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +8190,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7297,8 +8229,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7330,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7363,8 +8307,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7396,8 +8346,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +8385,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +8424,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7495,8 +8463,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +8502,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +8580,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +8619,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +8658,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +8736,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +8775,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +8814,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +8853,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7858,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +8931,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7924,8 +8970,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +9009,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7990,8 +9048,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8023,8 +9087,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8056,8 +9126,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +9165,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +9204,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +9243,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +9282,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +9321,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +9360,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +9399,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +9438,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +9477,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +9516,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +9555,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +9594,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8485,8 +9633,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8518,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8551,8 +9711,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8584,8 +9750,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8617,8 +9789,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8650,8 +9828,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +9867,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +9906,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +9945,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +9984,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +10023,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8881,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8914,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8947,8 +10179,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8980,8 +10218,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9013,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +10374,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +10413,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +10452,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9211,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +10959,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +10998,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9673,8 +11037,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9706,8 +11076,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +11115,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9772,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9805,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +11349,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +11505,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +11544,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +11583,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +11622,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +11661,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +11700,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10264,15 +11736,17 @@
         <v>400840.3149097968</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>45.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+        <v>39.82</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10301,17 +11775,15 @@
         <v>400040.3149097968</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10342,13 +11814,11 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>45.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10383,13 +11853,11 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>45.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10424,13 +11892,11 @@
         <v>395892.4741097968</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>45.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10465,13 +11931,11 @@
         <v>388650.9185097968</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10506,13 +11970,11 @@
         <v>364362.4870097968</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>45.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10547,13 +12009,11 @@
         <v>374274.4870097968</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>45.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10588,13 +12048,11 @@
         <v>372574.5769097968</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10629,13 +12087,11 @@
         <v>370083.6843097968</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>45.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10670,13 +12126,11 @@
         <v>370148.412389708</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>44.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10715,7 +12169,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10750,13 +12204,11 @@
         <v>370148.412389708</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>45.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10795,7 +12247,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10830,13 +12282,11 @@
         <v>370148.412389708</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>45.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10875,7 +12325,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10910,13 +12360,11 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>44.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10951,13 +12399,11 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>44.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10992,13 +12438,11 @@
         <v>355359.9956897079</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>44.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11033,13 +12477,11 @@
         <v>393230.9955097967</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11074,13 +12516,11 @@
         <v>393770.5059798786</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>45.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11115,13 +12555,11 @@
         <v>395301.9291798786</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>45.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11156,13 +12594,11 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11197,13 +12633,11 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>45.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11238,13 +12672,11 @@
         <v>390239.7285529946</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>45.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11279,13 +12711,11 @@
         <v>390251.7285529946</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>45.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11320,13 +12750,11 @@
         <v>385669.2794529945</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>45.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11361,13 +12789,11 @@
         <v>313125.5361529945</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>45.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11402,13 +12828,11 @@
         <v>320125.5361529945</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>45.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11443,13 +12867,11 @@
         <v>324127.9360529945</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>45.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11484,13 +12906,11 @@
         <v>335258.9888529945</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>45.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11529,7 +12949,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11568,7 +12988,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11607,7 +13027,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11646,7 +13066,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11685,7 +13105,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11724,7 +13144,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11763,7 +13183,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11802,7 +13222,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11841,7 +13261,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11880,7 +13300,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11919,7 +13339,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11958,7 +13378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11997,7 +13417,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12036,7 +13456,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12075,7 +13495,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12114,7 +13534,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12153,7 +13573,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12192,7 +13612,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12231,7 +13651,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12270,7 +13690,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12309,7 +13729,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12348,7 +13768,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12387,7 +13807,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12426,7 +13846,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12465,7 +13885,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12504,7 +13924,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12543,7 +13963,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12582,7 +14002,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12621,7 +14041,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12660,7 +14080,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12699,7 +14119,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12738,7 +14158,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12777,7 +14197,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12816,7 +14236,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12855,7 +14275,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12894,7 +14314,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12933,7 +14353,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12972,7 +14392,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13011,7 +14431,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13050,7 +14470,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13089,7 +14509,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13128,7 +14548,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13167,7 +14587,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13206,7 +14626,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13245,7 +14665,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13284,7 +14704,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13323,7 +14743,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13362,7 +14782,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13401,7 +14821,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13440,7 +14860,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13479,7 +14899,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13518,7 +14938,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13557,7 +14977,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13596,7 +15016,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13635,7 +15055,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13674,7 +15094,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13713,7 +15133,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13752,7 +15172,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13791,7 +15211,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13830,7 +15250,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13869,7 +15289,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13908,7 +15328,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13947,7 +15367,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13986,7 +15406,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14025,7 +15445,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14064,7 +15484,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14103,7 +15523,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14142,7 +15562,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14181,7 +15601,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14220,7 +15640,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14259,7 +15679,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14298,7 +15718,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14337,7 +15757,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14376,7 +15796,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14415,7 +15835,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14454,7 +15874,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14493,7 +15913,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14532,7 +15952,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14571,7 +15991,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14610,7 +16030,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14649,7 +16069,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14688,7 +16108,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14727,7 +16147,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14766,7 +16186,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14805,7 +16225,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14844,7 +16264,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14883,7 +16303,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14922,7 +16342,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14961,7 +16381,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15000,7 +16420,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15039,7 +16459,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15078,7 +16498,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15117,7 +16537,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15156,7 +16576,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15195,7 +16615,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15234,7 +16654,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15273,7 +16693,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15312,7 +16732,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15351,7 +16771,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15390,7 +16810,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15429,7 +16849,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15468,7 +16888,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15507,7 +16927,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15546,7 +16966,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15585,7 +17005,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15624,7 +17044,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15663,7 +17083,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15702,7 +17122,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15741,7 +17161,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15780,7 +17200,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15819,7 +17239,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15858,7 +17278,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15897,7 +17317,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15936,7 +17356,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15975,7 +17395,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16014,7 +17434,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16053,7 +17473,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16092,7 +17512,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16131,7 +17551,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16170,7 +17590,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16209,7 +17629,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16248,7 +17668,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16287,7 +17707,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16326,7 +17746,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16365,7 +17785,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16404,7 +17824,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16443,7 +17863,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16482,7 +17902,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16521,7 +17941,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16560,7 +17980,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16599,7 +18019,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16638,7 +18058,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16677,7 +18097,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16716,7 +18136,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16755,7 +18175,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16794,7 +18214,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16833,7 +18253,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16872,7 +18292,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16911,7 +18331,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16950,7 +18370,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16989,7 +18409,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17028,7 +18448,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17067,7 +18487,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17106,7 +18526,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17145,7 +18565,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17184,7 +18604,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17223,7 +18643,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17262,7 +18682,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17301,7 +18721,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17340,7 +18760,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17379,7 +18799,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17418,7 +18838,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17457,7 +18877,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17496,7 +18916,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17535,7 +18955,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17574,7 +18994,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17613,7 +19033,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17652,7 +19072,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17691,7 +19111,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17730,7 +19150,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17769,7 +19189,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17808,7 +19228,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17847,7 +19267,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17886,7 +19306,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17925,7 +19345,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17964,7 +19384,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18003,7 +19423,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18042,7 +19462,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18081,7 +19501,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18120,7 +19540,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18159,7 +19579,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18198,7 +19618,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18237,7 +19657,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18276,7 +19696,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18315,7 +19735,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18354,7 +19774,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18393,7 +19813,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18432,7 +19852,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18471,7 +19891,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18510,7 +19930,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18549,7 +19969,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18588,7 +20008,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18627,7 +20047,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18666,7 +20086,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18705,7 +20125,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18744,7 +20164,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18783,7 +20203,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18822,7 +20242,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18861,7 +20281,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18900,7 +20320,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18939,7 +20359,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18978,7 +20398,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19017,7 +20437,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19056,7 +20476,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19095,7 +20515,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19134,7 +20554,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19173,7 +20593,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19212,7 +20632,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19251,7 +20671,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19290,7 +20710,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19329,7 +20749,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19368,7 +20788,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19407,7 +20827,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19446,7 +20866,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19485,7 +20905,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19524,7 +20944,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19563,7 +20983,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19602,7 +21022,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19641,7 +21061,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19680,7 +21100,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19719,7 +21139,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19758,7 +21178,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19797,7 +21217,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19836,7 +21256,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19875,7 +21295,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19914,7 +21334,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19953,7 +21373,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19992,7 +21412,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20031,7 +21451,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20070,7 +21490,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20109,7 +21529,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20148,7 +21568,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20187,7 +21607,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20226,7 +21646,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20265,7 +21685,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20304,7 +21724,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20343,7 +21763,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20382,7 +21802,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20421,7 +21841,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20460,7 +21880,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20499,7 +21919,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20538,7 +21958,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20577,7 +21997,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -20616,7 +22036,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20655,7 +22075,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20694,7 +22114,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20733,7 +22153,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20772,7 +22192,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20811,7 +22231,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20850,7 +22270,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20889,7 +22309,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20928,7 +22348,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20967,7 +22387,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21006,7 +22426,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21045,7 +22465,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21084,7 +22504,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21123,7 +22543,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21162,7 +22582,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21201,7 +22621,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21240,7 +22660,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21279,7 +22699,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21318,7 +22738,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21357,7 +22777,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21396,7 +22816,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21435,7 +22855,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21474,7 +22894,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21513,7 +22933,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21552,7 +22972,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21591,7 +23011,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21630,7 +23050,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21669,7 +23089,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21708,7 +23128,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21747,7 +23167,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21786,7 +23206,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21825,7 +23245,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21864,7 +23284,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -21903,7 +23323,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21942,7 +23362,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21981,7 +23401,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22020,7 +23440,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22059,7 +23479,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22098,7 +23518,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22137,7 +23557,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22176,7 +23596,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22215,7 +23635,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22254,7 +23674,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22293,7 +23713,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22332,7 +23752,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22371,7 +23791,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22410,7 +23830,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22449,7 +23869,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22488,7 +23908,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22527,7 +23947,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22566,7 +23986,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -22605,7 +24025,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22644,7 +24064,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -22683,7 +24103,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -22722,7 +24142,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -22761,7 +24181,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22800,7 +24220,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22839,7 +24259,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22878,7 +24298,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -22917,7 +24337,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22956,7 +24376,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22995,7 +24415,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23034,7 +24454,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23073,7 +24493,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23112,7 +24532,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23151,7 +24571,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23190,7 +24610,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23229,7 +24649,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23268,7 +24688,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23307,7 +24727,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23346,7 +24766,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -23385,7 +24805,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -23424,7 +24844,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -23463,7 +24883,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -23502,7 +24922,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -23541,7 +24961,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -23580,7 +25000,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -23619,7 +25039,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -23658,7 +25078,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -23697,7 +25117,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -23736,7 +25156,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -23775,7 +25195,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23814,7 +25234,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -23853,7 +25273,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -23892,7 +25312,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -23931,7 +25351,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -23970,7 +25390,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -24009,7 +25429,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -24048,7 +25468,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -24087,7 +25507,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -24126,7 +25546,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -24165,7 +25585,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -24204,7 +25624,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -24243,7 +25663,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -24282,7 +25702,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -24321,7 +25741,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -24360,7 +25780,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -24399,7 +25819,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -24438,7 +25858,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -24477,7 +25897,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -24516,7 +25936,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -24555,7 +25975,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -24594,7 +26014,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -24633,7 +26053,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -24672,7 +26092,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -24711,7 +26131,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -24750,7 +26170,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -24789,7 +26209,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -24828,7 +26248,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -24867,7 +26287,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -24906,7 +26326,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -24945,7 +26365,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -24984,7 +26404,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -25023,7 +26443,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -25062,7 +26482,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -25101,7 +26521,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -25140,7 +26560,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -25179,7 +26599,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -25218,7 +26638,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -25257,7 +26677,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -25296,7 +26716,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -25335,7 +26755,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -25374,7 +26794,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -25413,7 +26833,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -25452,7 +26872,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -25491,7 +26911,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -25530,7 +26950,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -25569,7 +26989,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -25608,7 +27028,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -25647,7 +27067,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -25686,7 +27106,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -25725,7 +27145,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -25764,7 +27184,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -25803,7 +27223,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -25842,7 +27262,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -25881,7 +27301,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -25920,7 +27340,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -25959,7 +27379,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -25998,7 +27418,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -26037,7 +27457,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -26076,7 +27496,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -26115,7 +27535,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -26154,7 +27574,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -26193,7 +27613,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -26232,7 +27652,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -26271,7 +27691,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -26310,7 +27730,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -26349,7 +27769,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -26388,7 +27808,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -26427,7 +27847,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -26466,7 +27886,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -26505,7 +27925,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -26544,7 +27964,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -26583,7 +28003,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -26622,7 +28042,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -26661,7 +28081,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -26700,7 +28120,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -26739,7 +28159,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -26778,7 +28198,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -26817,7 +28237,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -26856,7 +28276,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -26895,7 +28315,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -26934,7 +28354,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -26973,7 +28393,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -27012,7 +28432,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -27051,7 +28471,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -27090,7 +28510,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -27129,7 +28549,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -27168,7 +28588,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -27207,7 +28627,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -27246,7 +28666,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -27285,7 +28705,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -27320,21 +28740,23 @@
         <v>2077066.570412492</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>45.79</v>
+        <v>39.82</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
+        <v>1.367677046710196</v>
+      </c>
+      <c r="M727" t="n">
+        <v>1.004520341536916</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -27359,17 +28781,11 @@
         <v>2391596.890900969</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27398,17 +28814,11 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27437,17 +28847,11 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27476,17 +28880,11 @@
         <v>2152325.729993296</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27515,17 +28913,11 @@
         <v>1950684.744193296</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27554,17 +28946,11 @@
         <v>1733420.241393297</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27593,17 +28979,11 @@
         <v>1622503.885085692</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27632,17 +29012,11 @@
         <v>1351454.479501378</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27671,17 +29045,11 @@
         <v>1519730.056601379</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27710,17 +29078,11 @@
         <v>1729005.014314004</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27749,17 +29111,11 @@
         <v>1673897.520414004</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27791,14 +29147,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27830,14 +29180,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27869,14 +29213,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27908,14 +29246,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27947,14 +29279,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27986,14 +29312,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28025,14 +29345,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28061,17 +29375,11 @@
         <v>1603399.257671222</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28100,17 +29408,11 @@
         <v>1618876.063611489</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28139,17 +29441,11 @@
         <v>1603064.598111489</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28178,17 +29474,11 @@
         <v>1479004.234238274</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28217,17 +29507,11 @@
         <v>1412619.645538274</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28256,17 +29540,11 @@
         <v>1486247.749661092</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28295,17 +29573,11 @@
         <v>1460299.641261092</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28334,17 +29606,11 @@
         <v>1475463.302389869</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28373,17 +29639,11 @@
         <v>1465364.713389869</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28412,17 +29672,11 @@
         <v>1413164.874589869</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28451,17 +29705,11 @@
         <v>1407164.874589869</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28490,17 +29738,11 @@
         <v>1385002.260989869</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28532,14 +29774,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28571,14 +29807,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28610,14 +29840,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28649,14 +29873,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28688,14 +29906,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28727,14 +29939,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28766,14 +29972,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28805,14 +30005,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28844,14 +30038,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28883,14 +30071,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28922,14 +30104,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28961,14 +30137,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -29000,14 +30170,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29039,14 +30203,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29078,14 +30236,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29117,14 +30269,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29156,14 +30302,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29195,14 +30335,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29231,17 +30365,11 @@
         <v>1460646.323835599</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29270,17 +30398,11 @@
         <v>1501389.561835599</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29312,14 +30434,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29348,17 +30464,11 @@
         <v>1447637.905835599</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29387,17 +30497,11 @@
         <v>1452649.614435599</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29429,14 +30533,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29465,17 +30563,11 @@
         <v>1433246.453035599</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29507,14 +30599,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
